--- a/20 開発資料/03.詳細設計/プロセス概要(33_精算処理).xlsx
+++ b/20 開発資料/03.詳細設計/プロセス概要(33_精算処理).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="15" windowWidth="23385" windowHeight="11370"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="23385" windowHeight="11355"/>
   </bookViews>
   <sheets>
     <sheet name="IPO_1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="136">
   <si>
     <t>バイエル薬品
 手配管理システム</t>
@@ -774,10 +774,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>講演会番号</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面で入力された抽出条件と一致</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -793,13 +789,6 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>イッチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>実施日</t>
-    <rPh sb="0" eb="3">
-      <t>ジッシビ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -974,19 +963,6 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>講演会名</t>
-  </si>
-  <si>
-    <t>講演会名</t>
-    <rPh sb="0" eb="3">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1040,43 +1016,10 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>BYL企画担当BU</t>
-    <rPh sb="3" eb="5">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>講演会テーブル．BYL企画担当者BU</t>
   </si>
   <si>
-    <t>BYL企画担当エリア</t>
-    <rPh sb="3" eb="5">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>講演会テーブル．BYL企画担当者エリア</t>
-  </si>
-  <si>
-    <t>BYL企画担当営業所</t>
-    <rPh sb="3" eb="5">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タントウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>エイギョウショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>講演会テーブル．BYL企画担当者営業所</t>
@@ -1157,22 +1100,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>講演会番号(隠し項目)</t>
-    <rPh sb="0" eb="3">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>講演会テーブル．講演会番号</t>
     <rPh sb="11" eb="13">
       <t>バンゴウ</t>
@@ -1183,12 +1110,143 @@
     <t>33)</t>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>会合番号</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会合名</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開催日</t>
+    <rPh sb="0" eb="3">
+      <t>カイサイビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BU</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エリア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>営業所</t>
+    <rPh sb="0" eb="3">
+      <t>エイギョウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企画担当者</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講演会テーブル．BYL企画担当者名</t>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会合番号</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会合名</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精算完了</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求データ.精算完了</t>
+    <rPh sb="0" eb="2">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　未完了のとき：</t>
+    <rPh sb="1" eb="4">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　完了済みのとき：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講演会番号が紐づく請求データのいずれかが</t>
+    <rPh sb="0" eb="3">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -1544,58 +1602,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1641,6 +1647,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1649,6 +1682,31 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2559,276 +2617,276 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="13" max="13" width="2.625" customWidth="1"/>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="25" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="15">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41604</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="18" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="28" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2888,7 +2946,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2942,7 +3000,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2978,7 +3036,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -3008,7 +3066,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3064,7 +3122,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -3095,7 +3153,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3134,7 +3192,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3169,7 +3227,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3201,7 +3259,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3239,7 +3297,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3274,7 +3332,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -3315,7 +3373,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3367,7 +3425,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3414,7 +3472,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3467,7 +3525,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3518,7 +3576,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3568,7 +3626,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3618,7 +3676,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3672,7 +3730,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3725,7 +3783,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3778,7 +3836,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3833,7 +3891,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -3882,7 +3940,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -3923,7 +3981,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3972,7 +4030,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4023,7 +4081,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4055,7 +4113,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -4087,7 +4145,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -4140,7 +4198,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -4196,6 +4254,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -4212,16 +4280,6 @@
     <mergeCell ref="AU2:AZ2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -4240,275 +4298,275 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="25" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="15">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41604</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="18" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="28" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -4568,7 +4626,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4622,7 +4680,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4654,7 +4712,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4680,7 +4738,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -4737,7 +4795,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4783,7 +4841,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -4835,7 +4893,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -4885,7 +4943,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4934,7 +4992,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4985,7 +5043,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5033,7 +5091,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -5066,7 +5124,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -5098,7 +5156,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -5130,7 +5188,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -5160,7 +5218,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -5187,7 +5245,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -5214,7 +5272,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5267,7 +5325,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -5320,7 +5378,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -5373,7 +5431,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -5427,7 +5485,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -5480,7 +5538,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -5532,7 +5590,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -5583,7 +5641,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -5634,7 +5692,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -5685,7 +5743,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -5739,7 +5797,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -5793,7 +5851,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -5846,7 +5904,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -5902,6 +5960,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -5918,16 +5986,6 @@
     <mergeCell ref="AU2:AZ2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -5946,275 +6004,275 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="25" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="15">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41604</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="18" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="28" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -6274,7 +6332,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -6328,7 +6386,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -6386,7 +6444,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -6435,7 +6493,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6484,7 +6542,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -6534,7 +6592,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -6583,7 +6641,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6634,7 +6692,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -6686,7 +6744,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6737,7 +6795,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6788,7 +6846,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -6839,7 +6897,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -6890,7 +6948,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -6943,7 +7001,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -6996,7 +7054,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -7050,7 +7108,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -7103,7 +7161,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -7155,7 +7213,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -7208,7 +7266,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -7261,7 +7319,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -7315,7 +7373,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -7368,7 +7426,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -7420,7 +7478,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -7471,7 +7529,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -7522,7 +7580,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -7573,7 +7631,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -7627,7 +7685,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -7681,7 +7739,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -7734,7 +7792,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -7790,6 +7848,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="AA7:AZ7"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="AR2:AT2"/>
@@ -7806,16 +7874,6 @@
     <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="S7:Z7"/>
-    <mergeCell ref="AA7:AZ7"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -7835,275 +7893,275 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="25" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="15">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41604</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="18" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="28" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -8163,7 +8221,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -8217,7 +8275,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -8275,7 +8333,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -8330,7 +8388,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -8384,7 +8442,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -8439,7 +8497,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -8492,7 +8550,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -8546,7 +8604,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -8597,7 +8655,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -8653,7 +8711,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -8704,7 +8762,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8754,7 +8812,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8806,7 +8864,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -8857,7 +8915,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -8909,7 +8967,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -8962,7 +9020,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -9016,7 +9074,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -9069,7 +9127,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -9122,7 +9180,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -9175,7 +9233,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -9229,7 +9287,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -9282,7 +9340,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -9334,7 +9392,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -9385,7 +9443,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -9436,7 +9494,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -9487,7 +9545,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -9541,7 +9599,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -9595,7 +9653,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -9648,7 +9706,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -9704,6 +9762,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="AA7:AZ7"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="AR2:AT2"/>
@@ -9720,16 +9788,6 @@
     <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="S7:Z7"/>
-    <mergeCell ref="AA7:AZ7"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -9749,276 +9807,276 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="13" max="13" width="2.625" customWidth="1"/>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="25" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="15">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41604</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="18" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="28" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -10078,7 +10136,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10132,7 +10190,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -10168,7 +10226,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -10198,7 +10256,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -10234,7 +10292,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -10264,7 +10322,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -10322,7 +10380,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -10354,7 +10412,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10387,7 +10445,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10419,7 +10477,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -10451,7 +10509,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -10483,7 +10541,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -10516,7 +10574,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -10558,7 +10616,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -10600,7 +10658,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -10647,7 +10705,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -10694,7 +10752,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -10743,7 +10801,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -10791,7 +10849,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -10838,7 +10896,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -10885,7 +10943,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -10932,7 +10990,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -10979,7 +11037,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -11028,7 +11086,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -11079,7 +11137,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -11132,7 +11190,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -11185,7 +11243,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -11236,7 +11294,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -11289,7 +11347,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -11345,6 +11403,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="AA7:AZ7"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="AR2:AT2"/>
@@ -11361,16 +11429,6 @@
     <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="S7:Z7"/>
-    <mergeCell ref="AA7:AZ7"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -11389,279 +11447,279 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="25" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="15">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41571</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="18" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="15">
-        <v>41604</v>
-      </c>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39">
+        <v>41691</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="18" t="s">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="28" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -11721,7 +11779,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -11775,7 +11833,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -11791,7 +11849,7 @@
         <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -11833,7 +11891,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -11887,7 +11945,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -11904,7 +11962,7 @@
         <v>49</v>
       </c>
       <c r="O13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -11940,7 +11998,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -11993,7 +12051,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -12041,7 +12099,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -12099,7 +12157,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -12116,10 +12174,10 @@
         <v>49</v>
       </c>
       <c r="O17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
@@ -12148,7 +12206,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -12165,10 +12223,10 @@
         <v>49</v>
       </c>
       <c r="O18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Y18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
@@ -12194,7 +12252,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -12211,10 +12269,10 @@
         <v>49</v>
       </c>
       <c r="O19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Y19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AL19" s="5"/>
       <c r="AM19" s="5"/>
@@ -12232,7 +12290,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -12249,10 +12307,10 @@
         <v>49</v>
       </c>
       <c r="O20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Y20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AL20" s="5"/>
       <c r="AM20" s="5"/>
@@ -12270,7 +12328,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -12287,10 +12345,10 @@
         <v>49</v>
       </c>
       <c r="O21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Y21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AL21" s="5"/>
       <c r="AM21" s="5"/>
@@ -12308,7 +12366,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -12325,12 +12383,12 @@
         <v>49</v>
       </c>
       <c r="O22" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="Y22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
@@ -12348,7 +12406,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -12365,10 +12423,10 @@
         <v>49</v>
       </c>
       <c r="O23" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="Y23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
@@ -12394,7 +12452,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -12412,7 +12470,7 @@
         <v>49</v>
       </c>
       <c r="O24" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
@@ -12441,7 +12499,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -12456,10 +12514,10 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="P25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
@@ -12488,7 +12546,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -12503,7 +12561,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="Y26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
@@ -12531,7 +12589,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -12545,10 +12603,10 @@
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
       <c r="P27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
@@ -12571,7 +12629,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -12585,10 +12643,10 @@
       <c r="K28" s="4"/>
       <c r="L28" s="5"/>
       <c r="P28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
@@ -12615,7 +12673,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -12632,10 +12690,10 @@
         <v>49</v>
       </c>
       <c r="O29" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="Y29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
@@ -12661,7 +12719,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -12705,7 +12763,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -12747,7 +12805,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -12761,11 +12819,11 @@
       <c r="K32" s="4"/>
       <c r="L32" s="5"/>
       <c r="M32" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
@@ -12801,7 +12859,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -12819,7 +12877,7 @@
         <v>49</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
@@ -12858,7 +12916,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -12907,7 +12965,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -12947,7 +13005,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -12987,7 +13045,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -13027,7 +13085,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -13083,6 +13141,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="AA7:AZ7"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="AR2:AT2"/>
@@ -13099,16 +13167,6 @@
     <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="S7:Z7"/>
-    <mergeCell ref="AA7:AZ7"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -13128,275 +13186,279 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="25" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="15">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41604</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="18" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39">
+        <v>41691</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -13456,7 +13518,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -13510,7 +13572,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -13526,7 +13588,7 @@
         <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -13568,7 +13630,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -13585,13 +13647,13 @@
         <v>49</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
@@ -13620,7 +13682,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -13637,13 +13699,13 @@
         <v>49</v>
       </c>
       <c r="N13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
@@ -13672,7 +13734,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -13689,13 +13751,13 @@
         <v>49</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
@@ -13725,7 +13787,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -13739,29 +13801,14 @@
       <c r="K15" s="4"/>
       <c r="L15" s="7"/>
       <c r="M15" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
+        <v>125</v>
+      </c>
       <c r="W15" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AI15" s="5"/>
+        <v>126</v>
+      </c>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
@@ -13780,7 +13827,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -13796,14 +13843,16 @@
       <c r="M16" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="N16" t="s">
+        <v>121</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
@@ -13833,7 +13882,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -13847,29 +13896,18 @@
       <c r="K17" s="4"/>
       <c r="L17" s="7"/>
       <c r="M17" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="13" t="s">
-        <v>121</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N17" t="s">
+        <v>127</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
@@ -13889,7 +13927,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -13902,8 +13940,17 @@
       <c r="J18" s="6"/>
       <c r="K18" s="4"/>
       <c r="L18" s="7"/>
-      <c r="W18" s="13" t="s">
-        <v>122</v>
+      <c r="M18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
@@ -13934,7 +13981,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -13947,17 +13994,15 @@
       <c r="J19" s="6"/>
       <c r="K19" s="4"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N19" t="s">
-        <v>124</v>
-      </c>
-      <c r="W19" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
+      <c r="M19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>130</v>
+      </c>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
@@ -13986,7 +14031,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -13999,35 +14044,9 @@
       <c r="J20" s="6"/>
       <c r="K20" s="4"/>
       <c r="L20" s="5"/>
-      <c r="M20" t="s">
-        <v>49</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
+      <c r="X20" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="AL20" s="5"/>
       <c r="AM20" s="5"/>
       <c r="AN20" s="5"/>
@@ -14044,7 +14063,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -14057,25 +14076,19 @@
       <c r="J21" s="6"/>
       <c r="K21" s="4"/>
       <c r="L21" s="7"/>
-      <c r="N21" s="13"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="Y21" s="5"/>
+      <c r="X21" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
+      <c r="AE21" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
-      <c r="AH21" s="13"/>
+      <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
       <c r="AK21" s="5"/>
@@ -14095,7 +14108,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -14108,22 +14121,13 @@
       <c r="J22" s="6"/>
       <c r="K22" s="4"/>
       <c r="L22" s="5"/>
-      <c r="N22" s="13"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
+      <c r="X22" s="13" t="s">
+        <v>131</v>
+      </c>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
+      <c r="AE22" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
       <c r="AH22" s="13"/>
@@ -14146,7 +14150,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -14159,27 +14163,28 @@
       <c r="J23" s="6"/>
       <c r="K23" s="4"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="13"/>
+      <c r="M23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
+      <c r="W23" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
+      <c r="AH23" s="13"/>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
       <c r="AK23" s="5"/>
@@ -14199,7 +14204,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -14212,16 +14217,9 @@
       <c r="J24" s="6"/>
       <c r="K24" s="4"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="7"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
+      <c r="W24" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
@@ -14251,7 +14249,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -14264,9 +14262,12 @@
       <c r="J25" s="6"/>
       <c r="K25" s="4"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="5"/>
+      <c r="M25" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -14274,8 +14275,9 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
+      <c r="W25" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
@@ -14305,7 +14307,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -14359,7 +14361,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -14412,7 +14414,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -14465,7 +14467,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -14519,7 +14521,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -14572,7 +14574,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -14624,7 +14626,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -14675,7 +14677,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -14726,7 +14728,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -14777,7 +14779,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -14831,7 +14833,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -14885,7 +14887,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -14938,7 +14940,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -14994,6 +14996,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="AA7:AZ7"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="AR2:AT2"/>
@@ -15010,16 +15022,6 @@
     <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="S7:Z7"/>
-    <mergeCell ref="AA7:AZ7"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
